--- a/biology/Biochimie/Constante_de_Michaelis/Constante_de_Michaelis.xlsx
+++ b/biology/Biochimie/Constante_de_Michaelis/Constante_de_Michaelis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La constante de Michaelis (popularisée par le travail de Leonor Michaëlis (1875-1949) et Maud Menten (1879-1960)), ou Km,  est une constante caractérisant une réaction enzymatique. C'est l'un des deux paramètres d'une enzyme, utilisé dans le modèle de cinétique enzymatique simplifié de Michaelis-Menten, l'autre étant la constante catalytique kcat de l'enzyme (également appelée turnover number, ou TON). Le Km correspond à la valeur de la concentration de substrat pour laquelle la vitesse de réaction enzymatique est égale à la moitié de la vitesse maximale Vmax. 
 Cette constante qui a la dimension d'une concentration (mole/litre) est reliée de la constante de dissociation de l'enzyme pour son substrat, mais n'est en général pas strictement égale à la constante de dissociation enzyme/substrat, mais est plus élevée que celle-ci. 
@@ -512,7 +524,9 @@
           <t>Km  et activité enzymatique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La constante de Michaelis Km est la concentration en substrat pour laquelle la vitesse initiale de la réaction est à la moitié de la vitesse initiale maximale. Cette constante est une concentration, elle a la même unité : mol.L-1.
 La constante de Michaelis est une caractéristique de l'enzyme. Souvent, les Km des différentes enzymes sont adaptés à la concentration intracellulaire de leur substrats. 
@@ -545,7 +559,9 @@
           <t>Modèle de Michaelis-Menten</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Considérons ce schéma cinétique : 
         E
@@ -649,7 +665,9 @@
           <t>Constante de Michaelis et inhibiteurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un inhibiteur compétitif augmente la constante de Michaelis et donc diminue l'affinité.Un inhibiteur non compétitif pur ne fait pas varier la constante de Michaelis mais varie vmax.Un inhibiteur mixte (ou incompétitif) peut faire augmenter ou diminuer la constante de Michaelis et fait varier vmax.
 </t>
